--- a/outputs/combined_daily_report.xlsx
+++ b/outputs/combined_daily_report.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,40 +471,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -525,29 +530,32 @@
       <c r="D2" t="n">
         <v>36</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Alejandro M S, Gerardo D, Rigoberto Al-B, Rogelio M</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Mobilized and started North side building tree removal and dirt for waterproofing to form paverbase.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Orlando Trucks</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2 Haul-offs</t>
         </is>
@@ -568,31 +576,34 @@
       <c r="D3" t="n">
         <v>27</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Alejandro M S, Gerardo D, Rigoberto Al-B</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Poured North side building tree removal and dirt for waterproofing to form paverbase.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -609,31 +620,34 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Rogelio M</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Poured North side building tree removal and dirt for waterproofing to form paverbase.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -650,35 +664,38 @@
       <c r="D5" t="n">
         <v>57</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Evaristo A, Leobardo RL, Moises P, Omar S</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cont with curb at north side of site to tie-in with original bldg</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>15</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Chantilly 21a</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -699,31 +716,34 @@
       <c r="D6" t="n">
         <v>57</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Eric M R, Evaristo A, Leobardo RL, Omar S</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Complete curb at north side road leading to original building. Begin prep of HD either side of road pipe trench</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>22</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -737,26 +757,27 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pour of west end HD paving at EYD rd at each side of trench box.  Prep sidewalk</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>9</v>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -773,17 +794,20 @@
       <c r="D8" t="n">
         <v>67</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Eric M R, Evaristo A, Henry G, Leobardo RL, Omar S</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,25 +824,28 @@
       <c r="D9" t="n">
         <v>19</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Elvis T, Evaristo A</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Parge over cracks at sidewalk and repairs to permeable pavers at tree pits</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -835,17 +862,20 @@
       <c r="D10" t="n">
         <v>21</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Jose Carlos G, Noe VL</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -859,20 +889,21 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Completed Canvas Clean-up and Work on Yard wifi and weed cleaning.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -889,17 +920,20 @@
       <c r="D12" t="n">
         <v>9.5</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Honorio G</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -916,25 +950,28 @@
       <c r="D13" t="n">
         <v>28.5</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Honorio G, Rigoberto Al-B, Rogelio M</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Returned to form extension wall in walk alley next to side buidling and started demo of ramp walks.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -951,31 +988,34 @@
       <c r="D14" t="n">
         <v>27</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Honorio G, Rigoberto Al-B, Rogelio M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Poured extension wall in walk alley buidling and continued demo of ramp walks for Wednesday.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -992,31 +1032,34 @@
       <c r="D15" t="n">
         <v>38</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Alejandro M S, Honorio G, Rigoberto Al-B, Rogelio M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>West Broad Street temporary ramps demo and replaced with previous curb and walks.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>8</v>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1030,20 +1073,21 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>121, 102</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Stripped and rubbed wall and demobilized all material and equipment.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1060,25 +1104,28 @@
       <c r="D17" t="n">
         <v>38</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Fernando V, Laurentino, Noe VL, Oscar VS</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Started Torndof Lane student lane CO pavers install upper side first and changed elevations.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1095,25 +1142,28 @@
       <c r="D18" t="n">
         <v>38</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Fernando V, Laurentino, Noe VL, Oscar VS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Cont'd Torndof Lane student lane CO pavers install upper side first and changed elevations.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1130,29 +1180,32 @@
       <c r="D19" t="n">
         <v>28.5</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Fernando V, Laurentino, Oscar VS</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Cont'd Torndof Lane student lane CO pavers install upper side first and changed elevations.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Hanover</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Final delivery</t>
         </is>
@@ -1173,25 +1226,28 @@
       <c r="D20" t="n">
         <v>47.5</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Fernando V, Jose Carlos G, Laurentino, Noe VL, Oscar VS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Cont'd Torndof Lane student lane CO pavers install heading down middle of road on poured base.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1208,25 +1264,28 @@
       <c r="D21" t="n">
         <v>47.5</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Fernando V, Jose Carlos G, Laurentino, Noe VL, Oscar VS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Cont'd Torndof Lane student lane CO pavers install heading down middle of road on poured base.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1243,25 +1302,28 @@
       <c r="D22" t="n">
         <v>38</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Antoine F, Carlos Al-V, Jose P, Rata F</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Begin excavation and rebar for feature wall footers at pool ctyd</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1278,31 +1340,34 @@
       <c r="D23" t="n">
         <v>57</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Antoine F, Carlos Al-V, Gaudencio B, Jose P, Moises P, Rata F</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Pour first to feature wall footers with embeds. Ecavcate &amp; prep last, and Fire pit &amp; gas grill footers</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>10</v>
       </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1319,31 +1384,34 @@
       <c r="D24" t="n">
         <v>48</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Carlos Al-V, Gaudencio B, Jose P, Moises P, Rata F</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Pour 3rd footer for feature wall and gas and fire pit bases.  Begin footer excations at amenities ctyd</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>9</v>
       </c>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1360,31 +1428,34 @@
       <c r="D25" t="n">
         <v>47.5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Antoine F, Carlos Al-V, Jose P, Moises P, Rata F</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Complete footers at ammeneties ctyd and begin backfill and grade adjacent canopy bases</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>13</v>
       </c>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1401,31 +1472,34 @@
       <c r="D26" t="n">
         <v>47.5</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Antoine F, Carlos Al-V, Jose P, Moises P, Rata F</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Front footer and bases at ammentiese ctyd</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>4</v>
       </c>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1440,21 +1514,22 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Concrete For Sorensen</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>3</v>
       </c>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1468,20 +1543,21 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Returned for CO to saw cut down check dam walls rear bio box 9 each for revised calculation for bond.</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1498,25 +1574,28 @@
       <c r="D29" t="n">
         <v>47.5</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Adalberto T, Gaudencio B, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>120, D2</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Excavate and install trench drain at police exit. Prep sidewlak to corner and chipping of damaged conc</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1533,31 +1612,34 @@
       <c r="D30" t="n">
         <v>78.5</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Adalberto T, Elvis T, Gaudencio B, Julio M, Leobardo RL, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>120, 118</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Pour sidewalk along drain and tie in to corner. Cont with CO demo at garage and curb r&amp;r</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>7</v>
       </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1571,24 +1653,25 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>124, 22</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Mobilize and begin form of sidewalk at front of building</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Chantilly Pitrun</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1609,31 +1692,34 @@
       <c r="D32" t="n">
         <v>66.5</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Daniel LG, Eric M R, Julio M, Leobardo RL, Omar S</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Pour of sidewalk at main entrance side of front and prep far side. Sawcut jts at ARA</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>10</v>
       </c>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1650,31 +1736,34 @@
       <c r="D33" t="n">
         <v>66.5</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Daniel LG, Eric M R, Evaristo A, Henry G, Omar S</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Complete sidewalk at front entrance loop.  Form &amp; pour walks at SE corner. Excavate &amp; prep sign footer</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>8</v>
       </c>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1691,31 +1780,34 @@
       <c r="D34" t="n">
         <v>85.5</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Gaudencio B, Henry G, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>120, 118</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Cont with curb at periemter of Bldg B</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Schuster</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>23</v>
       </c>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1732,25 +1824,28 @@
       <c r="D35" t="n">
         <v>85.5</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Gaudencio B, Henry G, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Cont with curb at B and form HD exterior pad at corner</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1767,31 +1862,34 @@
       <c r="D36" t="n">
         <v>76</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Henry G, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>120, 118</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Cont with curb at perimeter of Bldg B</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Schuster</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>27</v>
       </c>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1808,25 +1906,28 @@
       <c r="D37" t="n">
         <v>76</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Henry G, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Pour HD pad at corner &amp; cont curb</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1843,31 +1944,34 @@
       <c r="D38" t="n">
         <v>66.5</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>120, 118</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Complete curb at perimeter of B and clean up AMA forms</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Schuster</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>27</v>
       </c>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1884,25 +1988,28 @@
       <c r="D39" t="n">
         <v>66.5</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Curb &amp; pads at bldg b</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1916,20 +2023,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Cont walks at B and HD pad</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1943,20 +2051,21 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Cont wit walk and return to bldg c for curb</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1973,31 +2082,34 @@
       <c r="D42" t="n">
         <v>57</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>6:30 am start. Cont'd with wall cap and 3' sidewalk.  Cont'd prep of more Exposed Agg walks.</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>4</v>
       </c>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2014,31 +2126,34 @@
       <c r="D43" t="n">
         <v>57</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>6:30 am start. Poured next exposed aggregate panels on Seawalls.  Prep wall cap and 3' sidewalk.</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>8</v>
       </c>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2055,31 +2170,34 @@
       <c r="D44" t="n">
         <v>48</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>6:30 am start. Poured 3' cap stone 3' walks and prepped exposed aggregate panels for Thursday pour.</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>6</v>
       </c>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2096,31 +2214,34 @@
       <c r="D45" t="n">
         <v>57</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>6:30 am start. Poured full load of Exposed Aggregate walks and cont'd 3' walk heading West.</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>9</v>
       </c>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2137,31 +2258,34 @@
       <c r="D46" t="n">
         <v>66.5</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR, William A</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>6:30 am start. Poured full load of Exposed Aggregate walks and cont'd 3' walk heading West.</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>6</v>
       </c>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2178,25 +2302,28 @@
       <c r="D47" t="n">
         <v>4</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>Eduardo H</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Water cure refills</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2213,35 +2340,38 @@
       <c r="D48" t="n">
         <v>133</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Jose Luis H, Juan G, Miguel A, Misael M, Pablo G, William A</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and median pour.  125,123 courtyard walks and pool drains. B pavers ski slope.</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>13</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -2262,35 +2392,38 @@
       <c r="D49" t="n">
         <v>133</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Jose Luis H, Juan G, Miguel A, Misael M, Pablo G, William A</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and median pour.  125,123 courtyard walks and pool drains. B pavers ski slope.</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>20</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2311,35 +2444,38 @@
       <c r="D50" t="n">
         <v>114</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Juan G, Miguel A, Pablo G, William A</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and drain pour.  125,123 courtyard walks. B pavers ski slope and above door..</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>10</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2360,35 +2496,38 @@
       <c r="D51" t="n">
         <v>130</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Jose Luis H, Juan G, Miguel A, Misael M, Pablo G, William A</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and drain pour.  125,123 courtyard walks. B pavers ski slope and above door..</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>12</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2409,35 +2548,38 @@
       <c r="D52" t="n">
         <v>110.5</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Juan G, Miguel A, Misael M, Pablo G</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and drain pour.  125,123 courtyard walks. B pavers ski slope and above door..</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>10</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2458,25 +2600,28 @@
       <c r="D53" t="n">
         <v>49.5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Cristobal L, Eliacim R, Jesus L, Juan G, Miguel A, Misael M, Pablo G</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>125 Calvert St side curbs and 125 courtyard walks and saw cuts.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2489,7 +2634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2515,40 +2660,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -2569,25 +2719,28 @@
       <c r="D2" t="n">
         <v>38</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Antoine F, Carlos Al-V, Jose P, Rata F</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Begin excavation and rebar for feature wall footers at pool ctyd</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2604,31 +2757,34 @@
       <c r="D3" t="n">
         <v>57</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Antoine F, Carlos Al-V, Gaudencio B, Jose P, Moises P, Rata F</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pour first to feature wall footers with embeds. Ecavcate &amp; prep last, and Fire pit &amp; gas grill footers</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>10</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2645,31 +2801,34 @@
       <c r="D4" t="n">
         <v>48</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Carlos Al-V, Gaudencio B, Jose P, Moises P, Rata F</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour 3rd footer for feature wall and gas and fire pit bases.  Begin footer excations at amenities ctyd</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2686,31 +2845,34 @@
       <c r="D5" t="n">
         <v>47.5</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Antoine F, Carlos Al-V, Jose P, Moises P, Rata F</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Complete footers at ammeneties ctyd and begin backfill and grade adjacent canopy bases</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>13</v>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2727,31 +2889,34 @@
       <c r="D6" t="n">
         <v>47.5</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Antoine F, Carlos Al-V, Jose P, Moises P, Rata F</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Front footer and bases at ammentiese ctyd</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2764,7 +2929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2790,40 +2955,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -2842,21 +3012,22 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Concrete For Sorensen</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2869,7 +3040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2895,40 +3066,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -2946,20 +3122,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Returned for CO to saw cut down check dam walls rear bio box 9 each for revised calculation for bond.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2972,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2998,40 +3175,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -3052,25 +3234,28 @@
       <c r="D2" t="n">
         <v>47.5</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Adalberto T, Gaudencio B, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>120, D2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Excavate and install trench drain at police exit. Prep sidewlak to corner and chipping of damaged conc</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3087,31 +3272,34 @@
       <c r="D3" t="n">
         <v>78.5</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Adalberto T, Elvis T, Gaudencio B, Julio M, Leobardo RL, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>120, 118</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pour sidewalk along drain and tie in to corner. Cont with CO demo at garage and curb r&amp;r</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3124,7 +3312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3150,40 +3338,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -3201,24 +3394,25 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>124, 22</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Mobilize and begin form of sidewalk at front of building</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Chantilly Pitrun</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3239,31 +3433,34 @@
       <c r="D3" t="n">
         <v>66.5</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Daniel LG, Eric M R, Julio M, Leobardo RL, Omar S</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pour of sidewalk at main entrance side of front and prep far side. Sawcut jts at ARA</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>10</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3280,31 +3477,34 @@
       <c r="D4" t="n">
         <v>66.5</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Daniel LG, Eric M R, Evaristo A, Henry G, Omar S</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Complete sidewalk at front entrance loop.  Form &amp; pour walks at SE corner. Excavate &amp; prep sign footer</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3317,7 +3517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3343,40 +3543,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -3397,31 +3602,34 @@
       <c r="D2" t="n">
         <v>85.5</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Gaudencio B, Henry G, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>120, 118</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Cont with curb at periemter of Bldg B</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Schuster</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>23</v>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3438,25 +3646,28 @@
       <c r="D3" t="n">
         <v>85.5</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Gaudencio B, Henry G, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cont with curb at B and form HD exterior pad at corner</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3473,31 +3684,34 @@
       <c r="D4" t="n">
         <v>76</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Henry G, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>120, 118</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cont with curb at perimeter of Bldg B</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Schuster</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>27</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3514,25 +3728,28 @@
       <c r="D5" t="n">
         <v>76</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Henry G, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pour HD pad at corner &amp; cont curb</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3549,31 +3766,34 @@
       <c r="D6" t="n">
         <v>66.5</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>120, 118</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Complete curb at perimeter of B and clean up AMA forms</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Schuster</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>27</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3590,25 +3810,28 @@
       <c r="D7" t="n">
         <v>66.5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Adalberto T, Daniel LG, Elvis T, Julio M, Luis Enrique R, Luis Martin R, Trinidad T</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Curb &amp; pads at bldg b</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3622,20 +3845,21 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cont walks at B and HD pad</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3649,20 +3873,21 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>JMV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cont wit walk and return to bldg c for curb</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3675,7 +3900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,40 +3926,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -3755,31 +3985,34 @@
       <c r="D2" t="n">
         <v>57</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>6:30 am start. Cont'd with wall cap and 3' sidewalk.  Cont'd prep of more Exposed Agg walks.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3796,31 +4029,34 @@
       <c r="D3" t="n">
         <v>57</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>6:30 am start. Poured next exposed aggregate panels on Seawalls.  Prep wall cap and 3' sidewalk.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>8</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3837,31 +4073,34 @@
       <c r="D4" t="n">
         <v>48</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>6:30 am start. Poured 3' cap stone 3' walks and prepped exposed aggregate panels for Thursday pour.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3878,31 +4117,34 @@
       <c r="D5" t="n">
         <v>57</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>6:30 am start. Poured full load of Exposed Aggregate walks and cont'd 3' walk heading West.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>9</v>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3919,31 +4161,34 @@
       <c r="D6" t="n">
         <v>66.5</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Alberto R, Danis BA, Eduardo H, Feliciano R, Isidro M, Juan HR, William A</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>6:30 am start. Poured full load of Exposed Aggregate walks and cont'd 3' walk heading West.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Chaney</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3960,25 +4205,28 @@
       <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Eduardo H</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Water cure refills</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3991,7 +4239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4017,40 +4265,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -4071,35 +4324,38 @@
       <c r="D2" t="n">
         <v>133</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Jose Luis H, Juan G, Miguel A, Misael M, Pablo G, William A</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and median pour.  125,123 courtyard walks and pool drains. B pavers ski slope.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>13</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -4120,35 +4376,38 @@
       <c r="D3" t="n">
         <v>133</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Jose Luis H, Juan G, Miguel A, Misael M, Pablo G, William A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and median pour.  125,123 courtyard walks and pool drains. B pavers ski slope.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>20</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -4169,35 +4428,38 @@
       <c r="D4" t="n">
         <v>114</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Juan G, Miguel A, Pablo G, William A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and drain pour.  125,123 courtyard walks. B pavers ski slope and above door..</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>10</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -4218,35 +4480,38 @@
       <c r="D5" t="n">
         <v>130</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Jose Luis H, Juan G, Miguel A, Misael M, Pablo G, William A</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and drain pour.  125,123 courtyard walks. B pavers ski slope and above door..</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -4267,35 +4532,38 @@
       <c r="D6" t="n">
         <v>110.5</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Benny S, Carlos G, Cristobal L, Diego R, Eliacim R, Jesus L, Juan G, Miguel A, Misael M, Pablo G</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>125 Calvert St. site curbs and drain pour.  125,123 courtyard walks. B pavers ski slope and above door..</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>10</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Holcim</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4316,25 +4584,28 @@
       <c r="D7" t="n">
         <v>49.5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Alfonso D, Andres G, Cristobal L, Eliacim R, Jesus L, Juan G, Miguel A, Misael M, Pablo G</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>125, 126</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>125 Calvert St side curbs and 125 courtyard walks and saw cuts.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4347,7 +4618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4373,40 +4644,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -4427,29 +4703,32 @@
       <c r="D2" t="n">
         <v>36</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Alejandro M S, Gerardo D, Rigoberto Al-B, Rogelio M</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Mobilized and started North side building tree removal and dirt for waterproofing to form paverbase.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Orlando Trucks</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2 Haul-offs</t>
         </is>
@@ -4470,31 +4749,34 @@
       <c r="D3" t="n">
         <v>27</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Alejandro M S, Gerardo D, Rigoberto Al-B</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Poured North side building tree removal and dirt for waterproofing to form paverbase.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4511,31 +4793,34 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Rogelio M</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Poured North side building tree removal and dirt for waterproofing to form paverbase.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4548,7 +4833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4574,40 +4859,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -4628,35 +4918,38 @@
       <c r="D2" t="n">
         <v>57</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Evaristo A, Leobardo RL, Moises P, Omar S</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Cont with curb at north side of site to tie-in with original bldg</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>15</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Chantilly 21a</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4677,31 +4970,34 @@
       <c r="D3" t="n">
         <v>57</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Eric M R, Evaristo A, Leobardo RL, Omar S</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Complete curb at north side road leading to original building. Begin prep of HD either side of road pipe trench</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>22</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4715,26 +5011,27 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>124, 122</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour of west end HD paving at EYD rd at each side of trench box.  Prep sidewalk</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4747,7 +5044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4773,40 +5070,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -4827,17 +5129,20 @@
       <c r="D2" t="n">
         <v>67</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Benito A, Daniel GS, Eric M R, Evaristo A, Henry G, Leobardo RL, Omar S</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4850,7 +5155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4876,40 +5181,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -4930,25 +5240,28 @@
       <c r="D2" t="n">
         <v>19</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Elvis T, Evaristo A</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Parge over cracks at sidewalk and repairs to permeable pavers at tree pits</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4961,7 +5274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4987,40 +5300,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -5041,17 +5359,20 @@
       <c r="D2" t="n">
         <v>21</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Jose Carlos G, Noe VL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5065,20 +5386,21 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Completed Canvas Clean-up and Work on Yard wifi and weed cleaning.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5091,7 +5413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5117,40 +5439,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -5171,17 +5498,20 @@
       <c r="D2" t="n">
         <v>9.5</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Honorio G</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5194,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5220,40 +5550,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -5274,25 +5609,28 @@
       <c r="D2" t="n">
         <v>28.5</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Honorio G, Rigoberto Al-B, Rogelio M</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Returned to form extension wall in walk alley next to side buidling and started demo of ramp walks.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5309,31 +5647,34 @@
       <c r="D3" t="n">
         <v>27</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Honorio G, Rigoberto Al-B, Rogelio M</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Poured extension wall in walk alley buidling and continued demo of ramp walks for Wednesday.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5350,31 +5691,34 @@
       <c r="D4" t="n">
         <v>38</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Alejandro M S, Honorio G, Rigoberto Al-B, Rogelio M</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>West Broad Street temporary ramps demo and replaced with previous curb and walks.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Vulcan</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5388,20 +5732,21 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>121, 102</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stripped and rubbed wall and demobilized all material and equipment.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5414,7 +5759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5440,40 +5785,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalHours</t>
+          <t>Working Hours</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Driving Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Employees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Truck(s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Concrete Yds</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stone Lds</t>
         </is>
@@ -5494,25 +5844,28 @@
       <c r="D2" t="n">
         <v>38</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Fernando V, Laurentino, Noe VL, Oscar VS</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Started Torndof Lane student lane CO pavers install upper side first and changed elevations.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5529,25 +5882,28 @@
       <c r="D3" t="n">
         <v>38</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Fernando V, Laurentino, Noe VL, Oscar VS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cont'd Torndof Lane student lane CO pavers install upper side first and changed elevations.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5564,29 +5920,32 @@
       <c r="D4" t="n">
         <v>28.5</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Fernando V, Laurentino, Oscar VS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cont'd Torndof Lane student lane CO pavers install upper side first and changed elevations.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Hanover</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Final delivery</t>
         </is>
@@ -5607,25 +5966,28 @@
       <c r="D5" t="n">
         <v>47.5</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Fernando V, Jose Carlos G, Laurentino, Noe VL, Oscar VS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cont'd Torndof Lane student lane CO pavers install heading down middle of road on poured base.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5642,25 +6004,28 @@
       <c r="D6" t="n">
         <v>47.5</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Fernando V, Jose Carlos G, Laurentino, Noe VL, Oscar VS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cont'd Torndof Lane student lane CO pavers install heading down middle of road on poured base.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
